--- a/docs/HYPHEN배치성-실시간_파일포맷.xlsx
+++ b/docs/HYPHEN배치성-실시간_파일포맷.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA697E2-18C5-468F-B0B3-4B2E44391743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAF8957-E83F-4384-9E19-AF290776D1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6132" yWindow="588" windowWidth="14424" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="648" yWindow="708" windowWidth="15348" windowHeight="11220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="송금이체" sheetId="2" r:id="rId1"/>
     <sheet name="응답코드표(K뱅크)" sheetId="5" r:id="rId2"/>
+    <sheet name="집금(출금)이체" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="719">
   <si>
     <t>순번</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2808,6 +2809,276 @@
   </si>
   <si>
     <t>송신일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표 집금은행코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표 집금계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표 집금계좌비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표 집금계좌적요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금할 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집금 후 모계좌 잔액부호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집금 후 모계좌 잔액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실명번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일/사업자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 출금계좌의 비밀번호(필요시사용,대행의경우 불필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행에서부여한 산출법에따른 결과값(필요시사용, 대행의경우 불필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동이체구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리,우체국은 "20"(필요시사용, 대행의경우 불필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집금계좌적요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집금은행코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집금계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집금계좌비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 집금계좌의 비밀번호(필요시사용)(없으면 HEAD부의 대표번호사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 모계좌 적요(KSC5601, 없으면 HEAD부의 대표적요사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집금은행 대표기관코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집금은행 기관코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통은 기관코드와 같음(필요시사용, 대행은 불필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통은 기관코드와 같음(없으면 HEAD부의 대표코드사용, 대행은 불필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표 집금은행 기관코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표 집금은행 대표기관코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납부자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금등록시킨 납부자번호와 같아야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 건수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 금액 합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전송시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일정보구분값은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BR2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로 해야합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청파일과 결과파일을 매핑하기위한 키값
+요청파일에 보낸대로 결과파일에 그대로 돌아옴(필요시사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+'나 스페이스는 양수, '-'는 음수(대행은 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(대행은 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 계좌 적요(농협만 사용가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배치성</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실시간</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집금(출금)이체</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체의 모계좌번호(필요시사용,대행은 불필요)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3205,7 +3476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -3327,9 +3598,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3389,6 +3657,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3682,8 +3959,8 @@
   </sheetPr>
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -4011,13 +4288,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="63" t="s">
         <v>663</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C2" s="2"/>
@@ -4050,33 +4327,33 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="42">
+      <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>641</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="43">
         <v>1</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="48">
+      <c r="A6" s="47">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="48">
         <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -4084,16 +4361,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="48">
+      <c r="A7" s="47">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="48">
         <v>8</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -4101,16 +4378,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="48">
+      <c r="A8" s="47">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="48">
         <v>3</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -4118,16 +4395,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="48">
+      <c r="A9" s="47">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <v>16</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -4135,16 +4412,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="48">
+      <c r="A10" s="47">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="48">
         <v>8</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -4152,33 +4429,33 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>7</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="48">
         <v>20</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="49" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="48">
         <v>20</v>
       </c>
       <c r="E12" s="28" t="s">
@@ -4186,34 +4463,34 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="60">
+      <c r="A13" s="59">
         <v>9</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="53">
         <v>114</v>
       </c>
-      <c r="E13" s="61"/>
+      <c r="E13" s="60"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="57">
+      <c r="A14" s="56">
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="57">
         <v>2</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="58" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4255,33 +4532,33 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="42">
+      <c r="A19" s="41">
         <v>1</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>641</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="43">
         <v>1</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="44" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="46">
+      <c r="A20" s="45">
         <v>2</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="46">
         <v>6</v>
       </c>
       <c r="E20" s="20" t="s">
@@ -4289,16 +4566,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="48">
+      <c r="A21" s="47">
         <v>3</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="48">
         <v>3</v>
       </c>
       <c r="E21" s="28" t="s">
@@ -4306,16 +4583,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="48">
+      <c r="A22" s="47">
         <v>4</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="48">
         <v>16</v>
       </c>
       <c r="E22" s="28" t="s">
@@ -4323,16 +4600,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="48">
+      <c r="A23" s="47">
         <v>5</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="48">
         <v>13</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -4340,16 +4617,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="48">
+      <c r="A24" s="47">
         <v>6</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="48">
         <v>1</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -4357,16 +4634,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="48">
+      <c r="A25" s="47">
         <v>7</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="48">
         <v>13</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -4374,16 +4651,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="48">
+      <c r="A26" s="47">
         <v>8</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="48">
         <v>9</v>
       </c>
       <c r="E26" s="13" t="s">
@@ -4391,16 +4668,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="48">
+      <c r="A27" s="47">
         <v>9</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D27" s="48">
         <v>1</v>
       </c>
       <c r="E27" s="13" t="s">
@@ -4408,16 +4685,16 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="48">
+      <c r="A28" s="47">
         <v>10</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="48">
         <v>4</v>
       </c>
       <c r="E28" s="28" t="s">
@@ -4425,16 +4702,16 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="48">
+      <c r="A29" s="47">
         <v>11</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D29" s="48">
         <v>16</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -4442,16 +4719,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="48">
+      <c r="A30" s="47">
         <v>12</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="51">
         <v>6</v>
       </c>
       <c r="E30" s="13" t="s">
@@ -4459,33 +4736,33 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="51">
+      <c r="A31" s="50">
         <v>13</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>664</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="51">
         <v>1</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="49" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="51">
+      <c r="A32" s="50">
         <v>14</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>672</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="51">
         <v>10</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -4493,16 +4770,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="51">
+      <c r="A33" s="50">
         <v>15</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="52">
+      <c r="D33" s="51">
         <v>3</v>
       </c>
       <c r="E33" s="13" t="s">
@@ -4510,16 +4787,16 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="51">
+      <c r="A34" s="50">
         <v>16</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="51">
         <v>16</v>
       </c>
       <c r="E34" s="13" t="s">
@@ -4527,16 +4804,16 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="51">
+      <c r="A35" s="50">
         <v>17</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>658</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="52">
+      <c r="D35" s="51">
         <v>8</v>
       </c>
       <c r="E35" s="13" t="s">
@@ -4544,33 +4821,33 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="51">
+      <c r="A36" s="50">
         <v>18</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="49">
+      <c r="D36" s="48">
         <v>20</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="49" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="48">
+      <c r="A37" s="47">
         <v>19</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="49">
+      <c r="D37" s="48">
         <v>20</v>
       </c>
       <c r="E37" s="13" t="s">
@@ -4578,34 +4855,34 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="53">
+      <c r="A38" s="52">
         <v>20</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="55">
+      <c r="D38" s="54">
         <v>33</v>
       </c>
-      <c r="E38" s="56"/>
+      <c r="E38" s="55"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="57">
+      <c r="A39" s="56">
         <v>21</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="58">
+      <c r="D39" s="57">
         <v>2</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="58" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9274,4 +9551,1289 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B9C0FE-2369-4092-AFC4-15DADBAFAA3A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="5.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="60.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="256" width="8.796875" style="1"/>
+    <col min="257" max="257" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="21.3984375" style="1" customWidth="1"/>
+    <col min="259" max="260" width="8.796875" style="1"/>
+    <col min="261" max="261" width="47.5" style="1" customWidth="1"/>
+    <col min="262" max="512" width="8.796875" style="1"/>
+    <col min="513" max="513" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="21.3984375" style="1" customWidth="1"/>
+    <col min="515" max="516" width="8.796875" style="1"/>
+    <col min="517" max="517" width="47.5" style="1" customWidth="1"/>
+    <col min="518" max="768" width="8.796875" style="1"/>
+    <col min="769" max="769" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="21.3984375" style="1" customWidth="1"/>
+    <col min="771" max="772" width="8.796875" style="1"/>
+    <col min="773" max="773" width="47.5" style="1" customWidth="1"/>
+    <col min="774" max="1024" width="8.796875" style="1"/>
+    <col min="1025" max="1025" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="21.3984375" style="1" customWidth="1"/>
+    <col min="1027" max="1028" width="8.796875" style="1"/>
+    <col min="1029" max="1029" width="47.5" style="1" customWidth="1"/>
+    <col min="1030" max="1280" width="8.796875" style="1"/>
+    <col min="1281" max="1281" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="21.3984375" style="1" customWidth="1"/>
+    <col min="1283" max="1284" width="8.796875" style="1"/>
+    <col min="1285" max="1285" width="47.5" style="1" customWidth="1"/>
+    <col min="1286" max="1536" width="8.796875" style="1"/>
+    <col min="1537" max="1537" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="21.3984375" style="1" customWidth="1"/>
+    <col min="1539" max="1540" width="8.796875" style="1"/>
+    <col min="1541" max="1541" width="47.5" style="1" customWidth="1"/>
+    <col min="1542" max="1792" width="8.796875" style="1"/>
+    <col min="1793" max="1793" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="21.3984375" style="1" customWidth="1"/>
+    <col min="1795" max="1796" width="8.796875" style="1"/>
+    <col min="1797" max="1797" width="47.5" style="1" customWidth="1"/>
+    <col min="1798" max="2048" width="8.796875" style="1"/>
+    <col min="2049" max="2049" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="21.3984375" style="1" customWidth="1"/>
+    <col min="2051" max="2052" width="8.796875" style="1"/>
+    <col min="2053" max="2053" width="47.5" style="1" customWidth="1"/>
+    <col min="2054" max="2304" width="8.796875" style="1"/>
+    <col min="2305" max="2305" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="21.3984375" style="1" customWidth="1"/>
+    <col min="2307" max="2308" width="8.796875" style="1"/>
+    <col min="2309" max="2309" width="47.5" style="1" customWidth="1"/>
+    <col min="2310" max="2560" width="8.796875" style="1"/>
+    <col min="2561" max="2561" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="21.3984375" style="1" customWidth="1"/>
+    <col min="2563" max="2564" width="8.796875" style="1"/>
+    <col min="2565" max="2565" width="47.5" style="1" customWidth="1"/>
+    <col min="2566" max="2816" width="8.796875" style="1"/>
+    <col min="2817" max="2817" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="21.3984375" style="1" customWidth="1"/>
+    <col min="2819" max="2820" width="8.796875" style="1"/>
+    <col min="2821" max="2821" width="47.5" style="1" customWidth="1"/>
+    <col min="2822" max="3072" width="8.796875" style="1"/>
+    <col min="3073" max="3073" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="21.3984375" style="1" customWidth="1"/>
+    <col min="3075" max="3076" width="8.796875" style="1"/>
+    <col min="3077" max="3077" width="47.5" style="1" customWidth="1"/>
+    <col min="3078" max="3328" width="8.796875" style="1"/>
+    <col min="3329" max="3329" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="21.3984375" style="1" customWidth="1"/>
+    <col min="3331" max="3332" width="8.796875" style="1"/>
+    <col min="3333" max="3333" width="47.5" style="1" customWidth="1"/>
+    <col min="3334" max="3584" width="8.796875" style="1"/>
+    <col min="3585" max="3585" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="21.3984375" style="1" customWidth="1"/>
+    <col min="3587" max="3588" width="8.796875" style="1"/>
+    <col min="3589" max="3589" width="47.5" style="1" customWidth="1"/>
+    <col min="3590" max="3840" width="8.796875" style="1"/>
+    <col min="3841" max="3841" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="21.3984375" style="1" customWidth="1"/>
+    <col min="3843" max="3844" width="8.796875" style="1"/>
+    <col min="3845" max="3845" width="47.5" style="1" customWidth="1"/>
+    <col min="3846" max="4096" width="8.796875" style="1"/>
+    <col min="4097" max="4097" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="21.3984375" style="1" customWidth="1"/>
+    <col min="4099" max="4100" width="8.796875" style="1"/>
+    <col min="4101" max="4101" width="47.5" style="1" customWidth="1"/>
+    <col min="4102" max="4352" width="8.796875" style="1"/>
+    <col min="4353" max="4353" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="21.3984375" style="1" customWidth="1"/>
+    <col min="4355" max="4356" width="8.796875" style="1"/>
+    <col min="4357" max="4357" width="47.5" style="1" customWidth="1"/>
+    <col min="4358" max="4608" width="8.796875" style="1"/>
+    <col min="4609" max="4609" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="21.3984375" style="1" customWidth="1"/>
+    <col min="4611" max="4612" width="8.796875" style="1"/>
+    <col min="4613" max="4613" width="47.5" style="1" customWidth="1"/>
+    <col min="4614" max="4864" width="8.796875" style="1"/>
+    <col min="4865" max="4865" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="21.3984375" style="1" customWidth="1"/>
+    <col min="4867" max="4868" width="8.796875" style="1"/>
+    <col min="4869" max="4869" width="47.5" style="1" customWidth="1"/>
+    <col min="4870" max="5120" width="8.796875" style="1"/>
+    <col min="5121" max="5121" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="21.3984375" style="1" customWidth="1"/>
+    <col min="5123" max="5124" width="8.796875" style="1"/>
+    <col min="5125" max="5125" width="47.5" style="1" customWidth="1"/>
+    <col min="5126" max="5376" width="8.796875" style="1"/>
+    <col min="5377" max="5377" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="21.3984375" style="1" customWidth="1"/>
+    <col min="5379" max="5380" width="8.796875" style="1"/>
+    <col min="5381" max="5381" width="47.5" style="1" customWidth="1"/>
+    <col min="5382" max="5632" width="8.796875" style="1"/>
+    <col min="5633" max="5633" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="21.3984375" style="1" customWidth="1"/>
+    <col min="5635" max="5636" width="8.796875" style="1"/>
+    <col min="5637" max="5637" width="47.5" style="1" customWidth="1"/>
+    <col min="5638" max="5888" width="8.796875" style="1"/>
+    <col min="5889" max="5889" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="21.3984375" style="1" customWidth="1"/>
+    <col min="5891" max="5892" width="8.796875" style="1"/>
+    <col min="5893" max="5893" width="47.5" style="1" customWidth="1"/>
+    <col min="5894" max="6144" width="8.796875" style="1"/>
+    <col min="6145" max="6145" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="21.3984375" style="1" customWidth="1"/>
+    <col min="6147" max="6148" width="8.796875" style="1"/>
+    <col min="6149" max="6149" width="47.5" style="1" customWidth="1"/>
+    <col min="6150" max="6400" width="8.796875" style="1"/>
+    <col min="6401" max="6401" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="21.3984375" style="1" customWidth="1"/>
+    <col min="6403" max="6404" width="8.796875" style="1"/>
+    <col min="6405" max="6405" width="47.5" style="1" customWidth="1"/>
+    <col min="6406" max="6656" width="8.796875" style="1"/>
+    <col min="6657" max="6657" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="21.3984375" style="1" customWidth="1"/>
+    <col min="6659" max="6660" width="8.796875" style="1"/>
+    <col min="6661" max="6661" width="47.5" style="1" customWidth="1"/>
+    <col min="6662" max="6912" width="8.796875" style="1"/>
+    <col min="6913" max="6913" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="21.3984375" style="1" customWidth="1"/>
+    <col min="6915" max="6916" width="8.796875" style="1"/>
+    <col min="6917" max="6917" width="47.5" style="1" customWidth="1"/>
+    <col min="6918" max="7168" width="8.796875" style="1"/>
+    <col min="7169" max="7169" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="21.3984375" style="1" customWidth="1"/>
+    <col min="7171" max="7172" width="8.796875" style="1"/>
+    <col min="7173" max="7173" width="47.5" style="1" customWidth="1"/>
+    <col min="7174" max="7424" width="8.796875" style="1"/>
+    <col min="7425" max="7425" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="21.3984375" style="1" customWidth="1"/>
+    <col min="7427" max="7428" width="8.796875" style="1"/>
+    <col min="7429" max="7429" width="47.5" style="1" customWidth="1"/>
+    <col min="7430" max="7680" width="8.796875" style="1"/>
+    <col min="7681" max="7681" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="21.3984375" style="1" customWidth="1"/>
+    <col min="7683" max="7684" width="8.796875" style="1"/>
+    <col min="7685" max="7685" width="47.5" style="1" customWidth="1"/>
+    <col min="7686" max="7936" width="8.796875" style="1"/>
+    <col min="7937" max="7937" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="21.3984375" style="1" customWidth="1"/>
+    <col min="7939" max="7940" width="8.796875" style="1"/>
+    <col min="7941" max="7941" width="47.5" style="1" customWidth="1"/>
+    <col min="7942" max="8192" width="8.796875" style="1"/>
+    <col min="8193" max="8193" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="21.3984375" style="1" customWidth="1"/>
+    <col min="8195" max="8196" width="8.796875" style="1"/>
+    <col min="8197" max="8197" width="47.5" style="1" customWidth="1"/>
+    <col min="8198" max="8448" width="8.796875" style="1"/>
+    <col min="8449" max="8449" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="21.3984375" style="1" customWidth="1"/>
+    <col min="8451" max="8452" width="8.796875" style="1"/>
+    <col min="8453" max="8453" width="47.5" style="1" customWidth="1"/>
+    <col min="8454" max="8704" width="8.796875" style="1"/>
+    <col min="8705" max="8705" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="21.3984375" style="1" customWidth="1"/>
+    <col min="8707" max="8708" width="8.796875" style="1"/>
+    <col min="8709" max="8709" width="47.5" style="1" customWidth="1"/>
+    <col min="8710" max="8960" width="8.796875" style="1"/>
+    <col min="8961" max="8961" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="21.3984375" style="1" customWidth="1"/>
+    <col min="8963" max="8964" width="8.796875" style="1"/>
+    <col min="8965" max="8965" width="47.5" style="1" customWidth="1"/>
+    <col min="8966" max="9216" width="8.796875" style="1"/>
+    <col min="9217" max="9217" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="21.3984375" style="1" customWidth="1"/>
+    <col min="9219" max="9220" width="8.796875" style="1"/>
+    <col min="9221" max="9221" width="47.5" style="1" customWidth="1"/>
+    <col min="9222" max="9472" width="8.796875" style="1"/>
+    <col min="9473" max="9473" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="21.3984375" style="1" customWidth="1"/>
+    <col min="9475" max="9476" width="8.796875" style="1"/>
+    <col min="9477" max="9477" width="47.5" style="1" customWidth="1"/>
+    <col min="9478" max="9728" width="8.796875" style="1"/>
+    <col min="9729" max="9729" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="21.3984375" style="1" customWidth="1"/>
+    <col min="9731" max="9732" width="8.796875" style="1"/>
+    <col min="9733" max="9733" width="47.5" style="1" customWidth="1"/>
+    <col min="9734" max="9984" width="8.796875" style="1"/>
+    <col min="9985" max="9985" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="21.3984375" style="1" customWidth="1"/>
+    <col min="9987" max="9988" width="8.796875" style="1"/>
+    <col min="9989" max="9989" width="47.5" style="1" customWidth="1"/>
+    <col min="9990" max="10240" width="8.796875" style="1"/>
+    <col min="10241" max="10241" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="21.3984375" style="1" customWidth="1"/>
+    <col min="10243" max="10244" width="8.796875" style="1"/>
+    <col min="10245" max="10245" width="47.5" style="1" customWidth="1"/>
+    <col min="10246" max="10496" width="8.796875" style="1"/>
+    <col min="10497" max="10497" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="21.3984375" style="1" customWidth="1"/>
+    <col min="10499" max="10500" width="8.796875" style="1"/>
+    <col min="10501" max="10501" width="47.5" style="1" customWidth="1"/>
+    <col min="10502" max="10752" width="8.796875" style="1"/>
+    <col min="10753" max="10753" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="21.3984375" style="1" customWidth="1"/>
+    <col min="10755" max="10756" width="8.796875" style="1"/>
+    <col min="10757" max="10757" width="47.5" style="1" customWidth="1"/>
+    <col min="10758" max="11008" width="8.796875" style="1"/>
+    <col min="11009" max="11009" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="21.3984375" style="1" customWidth="1"/>
+    <col min="11011" max="11012" width="8.796875" style="1"/>
+    <col min="11013" max="11013" width="47.5" style="1" customWidth="1"/>
+    <col min="11014" max="11264" width="8.796875" style="1"/>
+    <col min="11265" max="11265" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="21.3984375" style="1" customWidth="1"/>
+    <col min="11267" max="11268" width="8.796875" style="1"/>
+    <col min="11269" max="11269" width="47.5" style="1" customWidth="1"/>
+    <col min="11270" max="11520" width="8.796875" style="1"/>
+    <col min="11521" max="11521" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="21.3984375" style="1" customWidth="1"/>
+    <col min="11523" max="11524" width="8.796875" style="1"/>
+    <col min="11525" max="11525" width="47.5" style="1" customWidth="1"/>
+    <col min="11526" max="11776" width="8.796875" style="1"/>
+    <col min="11777" max="11777" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="21.3984375" style="1" customWidth="1"/>
+    <col min="11779" max="11780" width="8.796875" style="1"/>
+    <col min="11781" max="11781" width="47.5" style="1" customWidth="1"/>
+    <col min="11782" max="12032" width="8.796875" style="1"/>
+    <col min="12033" max="12033" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="21.3984375" style="1" customWidth="1"/>
+    <col min="12035" max="12036" width="8.796875" style="1"/>
+    <col min="12037" max="12037" width="47.5" style="1" customWidth="1"/>
+    <col min="12038" max="12288" width="8.796875" style="1"/>
+    <col min="12289" max="12289" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="21.3984375" style="1" customWidth="1"/>
+    <col min="12291" max="12292" width="8.796875" style="1"/>
+    <col min="12293" max="12293" width="47.5" style="1" customWidth="1"/>
+    <col min="12294" max="12544" width="8.796875" style="1"/>
+    <col min="12545" max="12545" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="21.3984375" style="1" customWidth="1"/>
+    <col min="12547" max="12548" width="8.796875" style="1"/>
+    <col min="12549" max="12549" width="47.5" style="1" customWidth="1"/>
+    <col min="12550" max="12800" width="8.796875" style="1"/>
+    <col min="12801" max="12801" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="21.3984375" style="1" customWidth="1"/>
+    <col min="12803" max="12804" width="8.796875" style="1"/>
+    <col min="12805" max="12805" width="47.5" style="1" customWidth="1"/>
+    <col min="12806" max="13056" width="8.796875" style="1"/>
+    <col min="13057" max="13057" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="21.3984375" style="1" customWidth="1"/>
+    <col min="13059" max="13060" width="8.796875" style="1"/>
+    <col min="13061" max="13061" width="47.5" style="1" customWidth="1"/>
+    <col min="13062" max="13312" width="8.796875" style="1"/>
+    <col min="13313" max="13313" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="21.3984375" style="1" customWidth="1"/>
+    <col min="13315" max="13316" width="8.796875" style="1"/>
+    <col min="13317" max="13317" width="47.5" style="1" customWidth="1"/>
+    <col min="13318" max="13568" width="8.796875" style="1"/>
+    <col min="13569" max="13569" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="21.3984375" style="1" customWidth="1"/>
+    <col min="13571" max="13572" width="8.796875" style="1"/>
+    <col min="13573" max="13573" width="47.5" style="1" customWidth="1"/>
+    <col min="13574" max="13824" width="8.796875" style="1"/>
+    <col min="13825" max="13825" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="21.3984375" style="1" customWidth="1"/>
+    <col min="13827" max="13828" width="8.796875" style="1"/>
+    <col min="13829" max="13829" width="47.5" style="1" customWidth="1"/>
+    <col min="13830" max="14080" width="8.796875" style="1"/>
+    <col min="14081" max="14081" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="21.3984375" style="1" customWidth="1"/>
+    <col min="14083" max="14084" width="8.796875" style="1"/>
+    <col min="14085" max="14085" width="47.5" style="1" customWidth="1"/>
+    <col min="14086" max="14336" width="8.796875" style="1"/>
+    <col min="14337" max="14337" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="21.3984375" style="1" customWidth="1"/>
+    <col min="14339" max="14340" width="8.796875" style="1"/>
+    <col min="14341" max="14341" width="47.5" style="1" customWidth="1"/>
+    <col min="14342" max="14592" width="8.796875" style="1"/>
+    <col min="14593" max="14593" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="21.3984375" style="1" customWidth="1"/>
+    <col min="14595" max="14596" width="8.796875" style="1"/>
+    <col min="14597" max="14597" width="47.5" style="1" customWidth="1"/>
+    <col min="14598" max="14848" width="8.796875" style="1"/>
+    <col min="14849" max="14849" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="21.3984375" style="1" customWidth="1"/>
+    <col min="14851" max="14852" width="8.796875" style="1"/>
+    <col min="14853" max="14853" width="47.5" style="1" customWidth="1"/>
+    <col min="14854" max="15104" width="8.796875" style="1"/>
+    <col min="15105" max="15105" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="21.3984375" style="1" customWidth="1"/>
+    <col min="15107" max="15108" width="8.796875" style="1"/>
+    <col min="15109" max="15109" width="47.5" style="1" customWidth="1"/>
+    <col min="15110" max="15360" width="8.796875" style="1"/>
+    <col min="15361" max="15361" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="21.3984375" style="1" customWidth="1"/>
+    <col min="15363" max="15364" width="8.796875" style="1"/>
+    <col min="15365" max="15365" width="47.5" style="1" customWidth="1"/>
+    <col min="15366" max="15616" width="8.796875" style="1"/>
+    <col min="15617" max="15617" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="21.3984375" style="1" customWidth="1"/>
+    <col min="15619" max="15620" width="8.796875" style="1"/>
+    <col min="15621" max="15621" width="47.5" style="1" customWidth="1"/>
+    <col min="15622" max="15872" width="8.796875" style="1"/>
+    <col min="15873" max="15873" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="21.3984375" style="1" customWidth="1"/>
+    <col min="15875" max="15876" width="8.796875" style="1"/>
+    <col min="15877" max="15877" width="47.5" style="1" customWidth="1"/>
+    <col min="15878" max="16128" width="8.796875" style="1"/>
+    <col min="16129" max="16129" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="21.3984375" style="1" customWidth="1"/>
+    <col min="16131" max="16132" width="8.796875" style="1"/>
+    <col min="16133" max="16133" width="47.5" style="1" customWidth="1"/>
+    <col min="16134" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="63" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="41">
+        <v>1</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>641</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="43">
+        <v>1</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="47">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="48">
+        <v>10</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="47">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="48">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="47">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="48">
+        <v>8</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="47">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="48">
+        <v>3</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="47">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="48">
+        <v>16</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="47">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="48">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="47">
+        <v>8</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>685</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="48">
+        <v>20</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="47">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="48">
+        <v>20</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="59">
+        <v>10</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="53">
+        <v>104</v>
+      </c>
+      <c r="E14" s="60"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="56">
+        <v>11</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="57">
+        <v>2</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(D5:D15)</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="41">
+        <v>1</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>641</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="43">
+        <v>1</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="45">
+        <v>2</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="46">
+        <v>6</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="47">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="48">
+        <v>3</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="47">
+        <v>4</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="48">
+        <v>16</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="47">
+        <v>5</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="48">
+        <v>13</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="47">
+        <v>6</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="48">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A26" s="47">
+        <v>7</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="48">
+        <v>4</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="47">
+        <v>8</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="48">
+        <v>20</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="47">
+        <v>9</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="48">
+        <v>20</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="47">
+        <v>10</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="48">
+        <v>13</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="47">
+        <v>11</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>694</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="51">
+        <v>2</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="47">
+        <v>12</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="51">
+        <v>6</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="47">
+        <v>13</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="48">
+        <v>1</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="47">
+        <v>14</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="48">
+        <v>13</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="47">
+        <v>15</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>703</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="51">
+        <v>10</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="47">
+        <v>16</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>702</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="51">
+        <v>10</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="47">
+        <v>17</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="51">
+        <v>3</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="47">
+        <v>18</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="51">
+        <v>16</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="47">
+        <v>19</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>699</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="51">
+        <v>8</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="47">
+        <v>20</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>696</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="48">
+        <v>20</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="47">
+        <v>21</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="54">
+        <v>14</v>
+      </c>
+      <c r="E40" s="55"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="61">
+        <v>22</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="57">
+        <v>2</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C42" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2">
+        <f>SUM(D20:D41)</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="5">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="15">
+        <v>2</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="16">
+        <v>7</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="9">
+        <v>3</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="11">
+        <v>13</v>
+      </c>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="9">
+        <v>4</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="11">
+        <v>7</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="9">
+        <v>5</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="11">
+        <v>13</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="9">
+        <v>6</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="11">
+        <v>7</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="9">
+        <v>7</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="11">
+        <v>13</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="15">
+        <v>8</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="16">
+        <v>139</v>
+      </c>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="24">
+        <v>9</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="26">
+        <v>2</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C55" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2">
+        <f>SUM(D46:D54)</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="38" t="s">
+        <v>669</v>
+      </c>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="38" t="s">
+        <v>670</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="38" t="s">
+        <v>712</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="38"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="38"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="38"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="38"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="38"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="38"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="38"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="31"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="31"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="31"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="31"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="31"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="31"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>